--- a/src/test/resources/testdata/OpenCart_TestData.xlsx
+++ b/src/test/resources/testdata/OpenCart_TestData.xlsx
@@ -96,28 +96,28 @@
     <t>878999999</t>
   </si>
   <si>
-    <t>ddhivya</t>
-  </si>
-  <si>
-    <t>aanjum</t>
-  </si>
-  <si>
-    <t>sshivender</t>
-  </si>
-  <si>
-    <t>nnaveen</t>
-  </si>
-  <si>
-    <t>dhivya11abc@gmail.com</t>
-  </si>
-  <si>
-    <t>anjum11abc@gmail.com</t>
-  </si>
-  <si>
-    <t>shiv11abc@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen11abc@gmail.com</t>
+    <t>dddhivya</t>
+  </si>
+  <si>
+    <t>adanjum</t>
+  </si>
+  <si>
+    <t>sfshivender</t>
+  </si>
+  <si>
+    <t>nfnaveen</t>
+  </si>
+  <si>
+    <t>dhivya111abc@gmail.com</t>
+  </si>
+  <si>
+    <t>anjum111abc@gmail.com</t>
+  </si>
+  <si>
+    <t>shiv112abc@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen11a2bc@gmail.com</t>
   </si>
 </sst>
 </file>

--- a/src/test/resources/testdata/OpenCart_TestData.xlsx
+++ b/src/test/resources/testdata/OpenCart_TestData.xlsx
@@ -96,28 +96,28 @@
     <t>878999999</t>
   </si>
   <si>
-    <t>dddhivya</t>
-  </si>
-  <si>
-    <t>adanjum</t>
-  </si>
-  <si>
-    <t>sfshivender</t>
-  </si>
-  <si>
-    <t>nfnaveen</t>
-  </si>
-  <si>
-    <t>dhivya111abc@gmail.com</t>
-  </si>
-  <si>
-    <t>anjum111abc@gmail.com</t>
-  </si>
-  <si>
-    <t>shiv112abc@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen11a2bc@gmail.com</t>
+    <t>dhivyaa</t>
+  </si>
+  <si>
+    <t>anjumm</t>
+  </si>
+  <si>
+    <t>shivenderr</t>
+  </si>
+  <si>
+    <t>naveenn</t>
+  </si>
+  <si>
+    <t>dhivya1112abc@gmail.com</t>
+  </si>
+  <si>
+    <t>anjum1121abc@gmail.com</t>
+  </si>
+  <si>
+    <t>shiv1122abc@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen11a22bc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>

--- a/src/test/resources/testdata/OpenCart_TestData.xlsx
+++ b/src/test/resources/testdata/OpenCart_TestData.xlsx
@@ -96,28 +96,28 @@
     <t>878999999</t>
   </si>
   <si>
-    <t>dhivyaa</t>
-  </si>
-  <si>
-    <t>anjumm</t>
-  </si>
-  <si>
-    <t>shivenderr</t>
-  </si>
-  <si>
-    <t>naveenn</t>
-  </si>
-  <si>
-    <t>dhivya1112abc@gmail.com</t>
-  </si>
-  <si>
-    <t>anjum1121abc@gmail.com</t>
-  </si>
-  <si>
-    <t>shiv1122abc@gmail.com</t>
-  </si>
-  <si>
-    <t>naveen11a22bc@gmail.com</t>
+    <t>dhivyaaa</t>
+  </si>
+  <si>
+    <t>anjummm</t>
+  </si>
+  <si>
+    <t>shivenderrr</t>
+  </si>
+  <si>
+    <t>naveennn</t>
+  </si>
+  <si>
+    <t>dhivya11121abc@gmail.com</t>
+  </si>
+  <si>
+    <t>anjum11211abc@gmail.com</t>
+  </si>
+  <si>
+    <t>shiv11222abc@gmail.com</t>
+  </si>
+  <si>
+    <t>naveen11a222bc@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -499,7 +499,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="171" zoomScaleNormal="171" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
